--- a/Code/Results/Cases/Case_0_143/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_143/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4080774738631305</v>
+        <v>0.429493140873177</v>
       </c>
       <c r="D2">
-        <v>0.1064995161596869</v>
+        <v>0.2206680388699453</v>
       </c>
       <c r="E2">
-        <v>0.1825524052217062</v>
+        <v>0.1811656080780608</v>
       </c>
       <c r="F2">
-        <v>3.297731906042173</v>
+        <v>3.514449379536416</v>
       </c>
       <c r="G2">
-        <v>0.0007995205504056637</v>
+        <v>0.002605142250926588</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.343441818745589</v>
+        <v>4.451043915544176</v>
       </c>
       <c r="L2">
-        <v>0.1683201828353162</v>
+        <v>0.1578622774669043</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.143676299434958</v>
+        <v>2.195141281712679</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3624598133341692</v>
+        <v>0.421917735229016</v>
       </c>
       <c r="D3">
-        <v>0.1058126373546102</v>
+        <v>0.2219117272248994</v>
       </c>
       <c r="E3">
-        <v>0.1615391782455049</v>
+        <v>0.1775845195624086</v>
       </c>
       <c r="F3">
-        <v>2.974567246959225</v>
+        <v>3.4632038256253</v>
       </c>
       <c r="G3">
-        <v>0.0008122317168570896</v>
+        <v>0.002612591057421148</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>6.353926260070409</v>
+        <v>4.239755081802457</v>
       </c>
       <c r="L3">
-        <v>0.1484380175167246</v>
+        <v>0.1543974599136106</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.193946574386217</v>
+        <v>2.21424496533087</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3355021507553317</v>
+        <v>0.4175307019142167</v>
       </c>
       <c r="D4">
-        <v>0.1057309273707432</v>
+        <v>0.2227766145306234</v>
       </c>
       <c r="E4">
-        <v>0.1491211410004922</v>
+        <v>0.1755006367484526</v>
       </c>
       <c r="F4">
-        <v>2.786181137947125</v>
+        <v>3.433988170384339</v>
       </c>
       <c r="G4">
-        <v>0.0008201747470034248</v>
+        <v>0.00261739676370585</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>5.7635260220232</v>
+        <v>4.11305017273736</v>
       </c>
       <c r="L4">
-        <v>0.1366884195817022</v>
+        <v>0.1523730292029555</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.227191874796823</v>
+        <v>2.226723944112841</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3247472453373916</v>
+        <v>0.4158089837012824</v>
       </c>
       <c r="D5">
-        <v>0.1057745403774106</v>
+        <v>0.2231543894908938</v>
       </c>
       <c r="E5">
-        <v>0.1441665101389198</v>
+        <v>0.174680125680549</v>
       </c>
       <c r="F5">
-        <v>2.711626608064407</v>
+        <v>3.422643444272083</v>
       </c>
       <c r="G5">
-        <v>0.0008234508882334999</v>
+        <v>0.002619413730798759</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>5.526618168461482</v>
+        <v>4.062170008604312</v>
       </c>
       <c r="L5">
-        <v>0.1320002200435226</v>
+        <v>0.1515737432114932</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.241294508796649</v>
+        <v>2.231996737216257</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3229744120054931</v>
+        <v>0.4155270697053197</v>
       </c>
       <c r="D6">
-        <v>0.1057861974171033</v>
+        <v>0.223218644461987</v>
       </c>
       <c r="E6">
-        <v>0.1433497593182516</v>
+        <v>0.1745456070994997</v>
       </c>
       <c r="F6">
-        <v>2.699372265143211</v>
+        <v>3.420793401014535</v>
       </c>
       <c r="G6">
-        <v>0.0008239973842677495</v>
+        <v>0.002619752193263138</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>5.487485333076165</v>
+        <v>4.053766648483474</v>
       </c>
       <c r="L6">
-        <v>0.1312273657384608</v>
+        <v>0.151442567709779</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.243668589490738</v>
+        <v>2.232883579550062</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3353562146699289</v>
+        <v>0.4175072154076531</v>
       </c>
       <c r="D7">
-        <v>0.1057312146826916</v>
+        <v>0.2227816069668052</v>
       </c>
       <c r="E7">
-        <v>0.1490539123068579</v>
+        <v>0.175489455165053</v>
       </c>
       <c r="F7">
-        <v>2.785167086285071</v>
+        <v>3.433832906581756</v>
       </c>
       <c r="G7">
-        <v>0.0008202187654895304</v>
+        <v>0.002617423727649444</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>5.760316858840042</v>
+        <v>4.112360946304591</v>
       </c>
       <c r="L7">
-        <v>0.1366248074896745</v>
+        <v>0.152362146024096</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.227379874423534</v>
+        <v>2.226794296797898</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3921084349744604</v>
+        <v>0.4268260236963783</v>
       </c>
       <c r="D8">
-        <v>0.1061865569658238</v>
+        <v>0.2210757641005898</v>
       </c>
       <c r="E8">
-        <v>0.1751963238984544</v>
+        <v>0.1799068681959497</v>
       </c>
       <c r="F8">
-        <v>3.184022376772958</v>
+        <v>3.496310178777264</v>
       </c>
       <c r="G8">
-        <v>0.0008038775402920211</v>
+        <v>0.002607662568454418</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>6.998288401412708</v>
+        <v>4.377558198483769</v>
       </c>
       <c r="L8">
-        <v>0.1613598669601615</v>
+        <v>0.1566461058381634</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.160487819513293</v>
+        <v>2.201572187215817</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.5135366621469757</v>
+        <v>0.4472183274596091</v>
       </c>
       <c r="D9">
-        <v>0.1102377390982099</v>
+        <v>0.2185403187370412</v>
       </c>
       <c r="E9">
-        <v>0.2311457071083751</v>
+        <v>0.1894915325657109</v>
       </c>
       <c r="F9">
-        <v>4.062183630401648</v>
+        <v>3.636901408077335</v>
       </c>
       <c r="G9">
-        <v>0.0007726930144515975</v>
+        <v>0.002590351783445133</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.595543382521555</v>
+        <v>4.922034081409038</v>
       </c>
       <c r="L9">
-        <v>0.2143127599614871</v>
+        <v>0.1658742857813138</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.050485115593034</v>
+        <v>2.158096589919793</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.6119445841092386</v>
+        <v>0.4635237364617808</v>
       </c>
       <c r="D10">
-        <v>0.1159275489111877</v>
+        <v>0.2171800643971835</v>
       </c>
       <c r="E10">
-        <v>0.2765266861051217</v>
+        <v>0.1971110256650519</v>
       </c>
       <c r="F10">
-        <v>4.79340011694751</v>
+        <v>3.751544356319613</v>
       </c>
       <c r="G10">
-        <v>0.0007499099602159554</v>
+        <v>0.002578734397484128</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.66332928919849</v>
+        <v>5.33756686360806</v>
       </c>
       <c r="L10">
-        <v>0.257299066268601</v>
+        <v>0.1731739295865395</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9864528723354908</v>
+        <v>2.129858551138511</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.6595769003990313</v>
+        <v>0.4712360502825277</v>
       </c>
       <c r="D11">
-        <v>0.1193379652276505</v>
+        <v>0.2166723658517782</v>
       </c>
       <c r="E11">
-        <v>0.2985092037429382</v>
+        <v>0.2007062656415997</v>
       </c>
       <c r="F11">
-        <v>5.152646500904581</v>
+        <v>3.806237587559906</v>
       </c>
       <c r="G11">
-        <v>0.0007394598744651505</v>
+        <v>0.002573685101394831</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.65484170225773</v>
+        <v>5.530110349364293</v>
       </c>
       <c r="L11">
-        <v>0.2781369089147461</v>
+        <v>0.1766110370794678</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9620976119124265</v>
+        <v>2.117828648914951</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.6781190346679864</v>
+        <v>0.4741994759384909</v>
       </c>
       <c r="D12">
-        <v>0.1207731426422569</v>
+        <v>0.216496256492789</v>
       </c>
       <c r="E12">
-        <v>0.307069784440138</v>
+        <v>0.2020865282173432</v>
       </c>
       <c r="F12">
-        <v>5.293358923165727</v>
+        <v>3.827319906710954</v>
       </c>
       <c r="G12">
-        <v>0.0007354782641749769</v>
+        <v>0.002571806675955246</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.03934723496906</v>
+        <v>5.60353785998592</v>
       </c>
       <c r="L12">
-        <v>0.2862547181490527</v>
+        <v>0.1779295999442496</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9536838864958384</v>
+        <v>2.113391600020236</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.6741014940520245</v>
+        <v>0.4735593307915167</v>
       </c>
       <c r="D13">
-        <v>0.1204571835712116</v>
+        <v>0.2165334639725103</v>
       </c>
       <c r="E13">
-        <v>0.3052147932109719</v>
+        <v>0.201788422599904</v>
       </c>
       <c r="F13">
-        <v>5.262830509636757</v>
+        <v>3.822762851548333</v>
       </c>
       <c r="G13">
-        <v>0.0007363370814259068</v>
+        <v>0.002572209736394493</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.95610313268588</v>
+        <v>5.58770084484496</v>
       </c>
       <c r="L13">
-        <v>0.2844955238942646</v>
+        <v>0.1776448633705314</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9554576769743477</v>
+        <v>2.114341913395563</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.6610916482188145</v>
+        <v>0.4714789894084674</v>
       </c>
       <c r="D14">
-        <v>0.1194529886549844</v>
+        <v>0.2166575526650192</v>
       </c>
       <c r="E14">
-        <v>0.2992084650435629</v>
+        <v>0.2008194419166429</v>
       </c>
       <c r="F14">
-        <v>5.164123777784908</v>
+        <v>3.807964570532391</v>
       </c>
       <c r="G14">
-        <v>0.000739132872572068</v>
+        <v>0.00257352988968271</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.68628268028237</v>
+        <v>5.536140886127612</v>
       </c>
       <c r="L14">
-        <v>0.2787999383260598</v>
+        <v>0.176719173737041</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9613883869147202</v>
+        <v>2.117461230580886</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.6531915968174076</v>
+        <v>0.4702103283578936</v>
       </c>
       <c r="D15">
-        <v>0.118857472987294</v>
+        <v>0.2167356682744384</v>
       </c>
       <c r="E15">
-        <v>0.2955616590357693</v>
+        <v>0.2002283724346796</v>
       </c>
       <c r="F15">
-        <v>5.104300151884672</v>
+        <v>3.798948706097804</v>
       </c>
       <c r="G15">
-        <v>0.0007408417955301504</v>
+        <v>0.00257434289452152</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.52224532992796</v>
+        <v>5.504626351926845</v>
       </c>
       <c r="L15">
-        <v>0.2753422145883633</v>
+        <v>0.1761543844041142</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9651306214439614</v>
+        <v>2.119387356863399</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.6088968291169579</v>
+        <v>0.4630256980365175</v>
       </c>
       <c r="D16">
-        <v>0.1157232552068308</v>
+        <v>0.2172154935641615</v>
       </c>
       <c r="E16">
-        <v>0.2751205336754623</v>
+        <v>0.1968786880190407</v>
       </c>
       <c r="F16">
-        <v>4.770526155996748</v>
+        <v>3.748021652737521</v>
       </c>
       <c r="G16">
-        <v>0.0007505901996444174</v>
+        <v>0.002579069099684621</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.59969410888709</v>
+        <v>5.325055279235698</v>
       </c>
       <c r="L16">
-        <v>0.2559664976492115</v>
+        <v>0.1729516719303348</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.988150449760326</v>
+        <v>2.130661242684525</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.582517184110884</v>
+        <v>0.4586940661461654</v>
       </c>
       <c r="D17">
-        <v>0.1140273704863617</v>
+        <v>0.2175384232895539</v>
       </c>
       <c r="E17">
-        <v>0.2629515799200703</v>
+        <v>0.1948570118061923</v>
       </c>
       <c r="F17">
-        <v>4.573128053406123</v>
+        <v>3.717434532287342</v>
       </c>
       <c r="G17">
-        <v>0.0007565407571359373</v>
+        <v>0.002582028628298324</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.04787905866311</v>
+        <v>5.2158016441565</v>
       </c>
       <c r="L17">
-        <v>0.2444360790899225</v>
+        <v>0.1710169217049611</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.0035737096307</v>
+        <v>2.137787118199469</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.5676074768689716</v>
+        <v>0.4562303507782701</v>
       </c>
       <c r="D18">
-        <v>0.113127484566121</v>
+        <v>0.2177346095890726</v>
       </c>
       <c r="E18">
-        <v>0.2560751810850022</v>
+        <v>0.1937063321443659</v>
       </c>
       <c r="F18">
-        <v>4.4620344488672</v>
+        <v>3.700080506351412</v>
       </c>
       <c r="G18">
-        <v>0.0007599561246847577</v>
+        <v>0.002583753051976675</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.7351544122032</v>
+        <v>5.153292131209867</v>
       </c>
       <c r="L18">
-        <v>0.2379218349442311</v>
+        <v>0.1699150507774903</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.012885273221556</v>
+        <v>2.141962445107026</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.562602007062452</v>
+        <v>0.4554009248301156</v>
       </c>
       <c r="D19">
-        <v>0.1128350923651738</v>
+        <v>0.2178028238160437</v>
       </c>
       <c r="E19">
-        <v>0.2537668722910098</v>
+        <v>0.1933188081885362</v>
       </c>
       <c r="F19">
-        <v>4.424817095204645</v>
+        <v>3.69424558691091</v>
       </c>
       <c r="G19">
-        <v>0.0007611115913501168</v>
+        <v>0.002584340729146574</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.63002585451125</v>
+        <v>5.132183913010977</v>
       </c>
       <c r="L19">
-        <v>0.2357353045350408</v>
+        <v>0.1695438484996004</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.016110372732967</v>
+        <v>2.143389280774201</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.5852974994612907</v>
+        <v>0.4591523025362108</v>
       </c>
       <c r="D20">
-        <v>0.1141999165615246</v>
+        <v>0.217502964559543</v>
       </c>
       <c r="E20">
-        <v>0.2642339838222512</v>
+        <v>0.1950709649032163</v>
       </c>
       <c r="F20">
-        <v>4.593882877795892</v>
+        <v>3.720665819739196</v>
       </c>
       <c r="G20">
-        <v>0.0007559081378098043</v>
+        <v>0.002581711287489167</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.1061266333291</v>
+        <v>5.227397625394701</v>
       </c>
       <c r="L20">
-        <v>0.2456510481210756</v>
+        <v>0.1712217444314632</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.001885486150059</v>
+        <v>2.137020609215128</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.6648984093059767</v>
+        <v>0.4720888664025438</v>
       </c>
       <c r="D21">
-        <v>0.1197438091537535</v>
+        <v>0.216620665253707</v>
       </c>
       <c r="E21">
-        <v>0.3009658566294675</v>
+        <v>0.2011035420711806</v>
       </c>
       <c r="F21">
-        <v>5.192981769266794</v>
+        <v>3.812301064580254</v>
       </c>
       <c r="G21">
-        <v>0.0007383124524359439</v>
+        <v>0.002573141217579454</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.76527435144521</v>
+        <v>5.551271225509026</v>
       </c>
       <c r="L21">
-        <v>0.2804663219178565</v>
+        <v>0.1769906076283974</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9596233114998824</v>
+        <v>2.116541788793796</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.7199244963089484</v>
+        <v>0.4807942030375614</v>
       </c>
       <c r="D22">
-        <v>0.124221696430709</v>
+        <v>0.2161382197259059</v>
       </c>
       <c r="E22">
-        <v>0.3263778309169041</v>
+        <v>0.2051560216827468</v>
       </c>
       <c r="F22">
-        <v>5.612316229685177</v>
+        <v>3.874356251667933</v>
       </c>
       <c r="G22">
-        <v>0.0007266627422703382</v>
+        <v>0.002567736114425002</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.90343884297261</v>
+        <v>5.765950716568682</v>
       </c>
       <c r="L22">
-        <v>0.3045706128142456</v>
+        <v>0.1808601349347612</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9367984841838251</v>
+        <v>2.103848436457369</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.6902447507410159</v>
+        <v>0.4761248960644764</v>
       </c>
       <c r="D23">
-        <v>0.1217433563243731</v>
+        <v>0.2163870342367247</v>
       </c>
       <c r="E23">
-        <v>0.3126690614978358</v>
+        <v>0.2029829989024918</v>
       </c>
       <c r="F23">
-        <v>5.385632569314481</v>
+        <v>3.841036099559147</v>
       </c>
       <c r="G23">
-        <v>0.0007328988691572808</v>
+        <v>0.0025706030687748</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.29037324872809</v>
+        <v>5.651093518231164</v>
       </c>
       <c r="L23">
-        <v>0.2915653336694959</v>
+        <v>0.1787857278714</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9484930180579738</v>
+        <v>2.110559540612883</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.5840397272706355</v>
+        <v>0.4589450510590041</v>
       </c>
       <c r="D24">
-        <v>0.1141216763961879</v>
+        <v>0.2175189626665599</v>
       </c>
       <c r="E24">
-        <v>0.2636538393626822</v>
+        <v>0.1949742005683603</v>
       </c>
       <c r="F24">
-        <v>4.584492228663322</v>
+        <v>3.719204235856921</v>
       </c>
       <c r="G24">
-        <v>0.0007561941617772771</v>
+        <v>0.002581854685485578</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.07977894725008</v>
+        <v>5.222154142806858</v>
       </c>
       <c r="L24">
-        <v>0.2451014062789341</v>
+        <v>0.1711291115692433</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.002647356245902</v>
+        <v>2.13736690329516</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.479323287224787</v>
+        <v>0.4414716579125582</v>
       </c>
       <c r="D25">
-        <v>0.1087316693616032</v>
+        <v>0.2191386311038244</v>
       </c>
       <c r="E25">
-        <v>0.2153774015938623</v>
+        <v>0.1867983287219559</v>
       </c>
       <c r="F25">
-        <v>3.811798507783976</v>
+        <v>3.596898911884693</v>
       </c>
       <c r="G25">
-        <v>0.0007810738683815721</v>
+        <v>0.002594840385644513</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.86956847430389</v>
+        <v>4.772061265310128</v>
       </c>
       <c r="L25">
-        <v>0.1993850332103335</v>
+        <v>0.163287682948166</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.077620576648826</v>
+        <v>2.16921156424354</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_143/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_143/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.429493140873177</v>
+        <v>0.4080774738631021</v>
       </c>
       <c r="D2">
-        <v>0.2206680388699453</v>
+        <v>0.1064995161594311</v>
       </c>
       <c r="E2">
-        <v>0.1811656080780608</v>
+        <v>0.1825524052217276</v>
       </c>
       <c r="F2">
-        <v>3.514449379536416</v>
+        <v>3.297731906042202</v>
       </c>
       <c r="G2">
-        <v>0.002605142250926588</v>
+        <v>0.0007995205503912305</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4.451043915544176</v>
+        <v>7.343441818745703</v>
       </c>
       <c r="L2">
-        <v>0.1578622774669043</v>
+        <v>0.1683201828354512</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.195141281712679</v>
+        <v>1.143676299434929</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.421917735229016</v>
+        <v>0.3624598133341976</v>
       </c>
       <c r="D3">
-        <v>0.2219117272248994</v>
+        <v>0.1058126373546315</v>
       </c>
       <c r="E3">
-        <v>0.1775845195624086</v>
+        <v>0.1615391782455404</v>
       </c>
       <c r="F3">
-        <v>3.4632038256253</v>
+        <v>2.974567246959225</v>
       </c>
       <c r="G3">
-        <v>0.002612591057421148</v>
+        <v>0.0008122317167952304</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.239755081802457</v>
+        <v>6.353926260070239</v>
       </c>
       <c r="L3">
-        <v>0.1543974599136106</v>
+        <v>0.1484380175167601</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.21424496533087</v>
+        <v>1.193946574386253</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.4175307019142167</v>
+        <v>0.3355021507553602</v>
       </c>
       <c r="D4">
-        <v>0.2227766145306234</v>
+        <v>0.1057309273708995</v>
       </c>
       <c r="E4">
-        <v>0.1755006367484526</v>
+        <v>0.1491211410005064</v>
       </c>
       <c r="F4">
-        <v>3.433988170384339</v>
+        <v>2.786181137947125</v>
       </c>
       <c r="G4">
-        <v>0.00261739676370585</v>
+        <v>0.0008201747469456228</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.11305017273736</v>
+        <v>5.7635260220232</v>
       </c>
       <c r="L4">
-        <v>0.1523730292029555</v>
+        <v>0.1366884195816809</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.226723944112841</v>
+        <v>1.227191874796908</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.4158089837012824</v>
+        <v>0.3247472453376474</v>
       </c>
       <c r="D5">
-        <v>0.2231543894908938</v>
+        <v>0.1057745403772898</v>
       </c>
       <c r="E5">
-        <v>0.174680125680549</v>
+        <v>0.1441665101389447</v>
       </c>
       <c r="F5">
-        <v>3.422643444272083</v>
+        <v>2.711626608064407</v>
       </c>
       <c r="G5">
-        <v>0.002619413730798759</v>
+        <v>0.0008234508881727645</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.062170008604312</v>
+        <v>5.526618168461425</v>
       </c>
       <c r="L5">
-        <v>0.1515737432114932</v>
+        <v>0.1320002200435795</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.231996737216257</v>
+        <v>1.241294508796578</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4155270697053197</v>
+        <v>0.3229744120057489</v>
       </c>
       <c r="D6">
-        <v>0.223218644461987</v>
+        <v>0.1057861974170962</v>
       </c>
       <c r="E6">
-        <v>0.1745456070994997</v>
+        <v>0.1433497593182729</v>
       </c>
       <c r="F6">
-        <v>3.420793401014535</v>
+        <v>2.699372265143182</v>
       </c>
       <c r="G6">
-        <v>0.002619752193263138</v>
+        <v>0.0008239973842672926</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.053766648483474</v>
+        <v>5.487485333076222</v>
       </c>
       <c r="L6">
-        <v>0.151442567709779</v>
+        <v>0.1312273657385319</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.232883579550062</v>
+        <v>1.243668589490703</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4175072154076531</v>
+        <v>0.3353562146701563</v>
       </c>
       <c r="D7">
-        <v>0.2227816069668052</v>
+        <v>0.1057312146826703</v>
       </c>
       <c r="E7">
-        <v>0.175489455165053</v>
+        <v>0.1490539123069148</v>
       </c>
       <c r="F7">
-        <v>3.433832906581756</v>
+        <v>2.785167086285099</v>
       </c>
       <c r="G7">
-        <v>0.002617423727649444</v>
+        <v>0.0008202187654870668</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.112360946304591</v>
+        <v>5.760316858840213</v>
       </c>
       <c r="L7">
-        <v>0.152362146024096</v>
+        <v>0.1366248074897172</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.226794296797898</v>
+        <v>1.227379874423576</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4268260236963783</v>
+        <v>0.3921084349742046</v>
       </c>
       <c r="D8">
-        <v>0.2210757641005898</v>
+        <v>0.106186556965838</v>
       </c>
       <c r="E8">
-        <v>0.1799068681959497</v>
+        <v>0.1751963238984615</v>
       </c>
       <c r="F8">
-        <v>3.496310178777264</v>
+        <v>3.184022376772958</v>
       </c>
       <c r="G8">
-        <v>0.002607662568454418</v>
+        <v>0.0008038775403560841</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.377558198483769</v>
+        <v>6.998288401412708</v>
       </c>
       <c r="L8">
-        <v>0.1566461058381634</v>
+        <v>0.1613598669601259</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.201572187215817</v>
+        <v>1.160487819513349</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4472183274596091</v>
+        <v>0.513536662147061</v>
       </c>
       <c r="D9">
-        <v>0.2185403187370412</v>
+        <v>0.1102377390984088</v>
       </c>
       <c r="E9">
-        <v>0.1894915325657109</v>
+        <v>0.2311457071083538</v>
       </c>
       <c r="F9">
-        <v>3.636901408077335</v>
+        <v>4.06218363040162</v>
       </c>
       <c r="G9">
-        <v>0.002590351783445133</v>
+        <v>0.0007726930144595551</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.922034081409038</v>
+        <v>9.595543382521612</v>
       </c>
       <c r="L9">
-        <v>0.1658742857813138</v>
+        <v>0.2143127599614871</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.158096589919793</v>
+        <v>1.050485115593105</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4635237364617808</v>
+        <v>0.6119445841089544</v>
       </c>
       <c r="D10">
-        <v>0.2171800643971835</v>
+        <v>0.1159275489113512</v>
       </c>
       <c r="E10">
-        <v>0.1971110256650519</v>
+        <v>0.2765266861051288</v>
       </c>
       <c r="F10">
-        <v>3.751544356319613</v>
+        <v>4.793400116947595</v>
       </c>
       <c r="G10">
-        <v>0.002578734397484128</v>
+        <v>0.0007499099602135142</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.33756686360806</v>
+        <v>11.66332928919849</v>
       </c>
       <c r="L10">
-        <v>0.1731739295865395</v>
+        <v>0.2572990662683736</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.129858551138511</v>
+        <v>0.9864528723354766</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4712360502825277</v>
+        <v>0.6595769003986049</v>
       </c>
       <c r="D11">
-        <v>0.2166723658517782</v>
+        <v>0.1193379652276505</v>
       </c>
       <c r="E11">
-        <v>0.2007062656415997</v>
+        <v>0.2985092037429382</v>
       </c>
       <c r="F11">
-        <v>3.806237587559906</v>
+        <v>5.152646500904609</v>
       </c>
       <c r="G11">
-        <v>0.002573685101394831</v>
+        <v>0.0007394598744664706</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.530110349364293</v>
+        <v>12.6548417022575</v>
       </c>
       <c r="L11">
-        <v>0.1766110370794678</v>
+        <v>0.2781369089144334</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.117828648914951</v>
+        <v>0.9620976119124407</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4741994759384909</v>
+        <v>0.6781190346679864</v>
       </c>
       <c r="D12">
-        <v>0.216496256492789</v>
+        <v>0.1207731426424203</v>
       </c>
       <c r="E12">
-        <v>0.2020865282173432</v>
+        <v>0.3070697844401167</v>
       </c>
       <c r="F12">
-        <v>3.827319906710954</v>
+        <v>5.293358923165727</v>
       </c>
       <c r="G12">
-        <v>0.002571806675955246</v>
+        <v>0.000735478264118683</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.60353785998592</v>
+        <v>13.03934723496917</v>
       </c>
       <c r="L12">
-        <v>0.1779295999442496</v>
+        <v>0.2862547181491522</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.113391600020236</v>
+        <v>0.9536838864958384</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4735593307915167</v>
+        <v>0.6741014940520245</v>
       </c>
       <c r="D13">
-        <v>0.2165334639725103</v>
+        <v>0.1204571835710126</v>
       </c>
       <c r="E13">
-        <v>0.201788422599904</v>
+        <v>0.3052147932109932</v>
       </c>
       <c r="F13">
-        <v>3.822762851548333</v>
+        <v>5.262830509636728</v>
       </c>
       <c r="G13">
-        <v>0.002572209736394493</v>
+        <v>0.0007363370813367994</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.58770084484496</v>
+        <v>12.95610313268583</v>
       </c>
       <c r="L13">
-        <v>0.1776448633705314</v>
+        <v>0.2844955238943072</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.114341913395563</v>
+        <v>0.9554576769744187</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4714789894084674</v>
+        <v>0.6610916482188145</v>
       </c>
       <c r="D14">
-        <v>0.2166575526650192</v>
+        <v>0.11945298865475</v>
       </c>
       <c r="E14">
-        <v>0.2008194419166429</v>
+        <v>0.2992084650434705</v>
       </c>
       <c r="F14">
-        <v>3.807964570532391</v>
+        <v>5.164123777784937</v>
       </c>
       <c r="G14">
-        <v>0.00257352988968271</v>
+        <v>0.0007391328725416813</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.536140886127612</v>
+        <v>12.68628268028243</v>
       </c>
       <c r="L14">
-        <v>0.176719173737041</v>
+        <v>0.2787999383259319</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.117461230580886</v>
+        <v>0.9613883869147202</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4702103283578936</v>
+        <v>0.6531915968169244</v>
       </c>
       <c r="D15">
-        <v>0.2167356682744384</v>
+        <v>0.1188574729872585</v>
       </c>
       <c r="E15">
-        <v>0.2002283724346796</v>
+        <v>0.2955616590356911</v>
       </c>
       <c r="F15">
-        <v>3.798948706097804</v>
+        <v>5.104300151884701</v>
       </c>
       <c r="G15">
-        <v>0.00257434289452152</v>
+        <v>0.0007408417955260459</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.504626351926845</v>
+        <v>12.52224532992807</v>
       </c>
       <c r="L15">
-        <v>0.1761543844041142</v>
+        <v>0.2753422145882212</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.119387356863399</v>
+        <v>0.9651306214440041</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4630256980365175</v>
+        <v>0.6088968291167305</v>
       </c>
       <c r="D16">
-        <v>0.2172154935641615</v>
+        <v>0.1157232552064187</v>
       </c>
       <c r="E16">
-        <v>0.1968786880190407</v>
+        <v>0.2751205336753912</v>
       </c>
       <c r="F16">
-        <v>3.748021652737521</v>
+        <v>4.770526155996805</v>
       </c>
       <c r="G16">
-        <v>0.002579069099684621</v>
+        <v>0.0007505901998002861</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.325055279235698</v>
+        <v>11.59969410888704</v>
       </c>
       <c r="L16">
-        <v>0.1729516719303348</v>
+        <v>0.2559664976492115</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.130661242684525</v>
+        <v>0.9881504497604112</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4586940661461654</v>
+        <v>0.5825171841111683</v>
       </c>
       <c r="D17">
-        <v>0.2175384232895539</v>
+        <v>0.1140273704867667</v>
       </c>
       <c r="E17">
-        <v>0.1948570118061923</v>
+        <v>0.2629515799200206</v>
       </c>
       <c r="F17">
-        <v>3.717434532287342</v>
+        <v>4.573128053406066</v>
       </c>
       <c r="G17">
-        <v>0.002582028628298324</v>
+        <v>0.0007565407571397436</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.2158016441565</v>
+        <v>11.047879058663</v>
       </c>
       <c r="L17">
-        <v>0.1710169217049611</v>
+        <v>0.2444360790896951</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.137787118199469</v>
+        <v>1.003573709630714</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4562303507782701</v>
+        <v>0.567607476869199</v>
       </c>
       <c r="D18">
-        <v>0.2177346095890726</v>
+        <v>0.1131274845664905</v>
       </c>
       <c r="E18">
-        <v>0.1937063321443659</v>
+        <v>0.2560751810849951</v>
       </c>
       <c r="F18">
-        <v>3.700080506351412</v>
+        <v>4.4620344488672</v>
       </c>
       <c r="G18">
-        <v>0.002583753051976675</v>
+        <v>0.0007599561246045348</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.153292131209867</v>
+        <v>10.73515441220303</v>
       </c>
       <c r="L18">
-        <v>0.1699150507774903</v>
+        <v>0.237921834944089</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.141962445107026</v>
+        <v>1.012885273221485</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4554009248301156</v>
+        <v>0.5626020070628215</v>
       </c>
       <c r="D19">
-        <v>0.2178028238160437</v>
+        <v>0.1128350923651027</v>
       </c>
       <c r="E19">
-        <v>0.1933188081885362</v>
+        <v>0.2537668722910169</v>
       </c>
       <c r="F19">
-        <v>3.69424558691091</v>
+        <v>4.424817095204645</v>
       </c>
       <c r="G19">
-        <v>0.002584340729146574</v>
+        <v>0.0007611115912164618</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.132183913010977</v>
+        <v>10.63002585451113</v>
       </c>
       <c r="L19">
-        <v>0.1695438484996004</v>
+        <v>0.2357353045351402</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.143389280774201</v>
+        <v>1.016110372733024</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4591523025362108</v>
+        <v>0.5852974994612907</v>
       </c>
       <c r="D20">
-        <v>0.217502964559543</v>
+        <v>0.1141999165615175</v>
       </c>
       <c r="E20">
-        <v>0.1950709649032163</v>
+        <v>0.2642339838222441</v>
       </c>
       <c r="F20">
-        <v>3.720665819739196</v>
+        <v>4.593882877795892</v>
       </c>
       <c r="G20">
-        <v>0.002581711287489167</v>
+        <v>0.000755908137672332</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.227397625394701</v>
+        <v>11.10612663332921</v>
       </c>
       <c r="L20">
-        <v>0.1712217444314632</v>
+        <v>0.2456510481209335</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.137020609215128</v>
+        <v>1.00188548615003</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4720888664025438</v>
+        <v>0.6648984093061188</v>
       </c>
       <c r="D21">
-        <v>0.216620665253707</v>
+        <v>0.1197438091536895</v>
       </c>
       <c r="E21">
-        <v>0.2011035420711806</v>
+        <v>0.3009658566294675</v>
       </c>
       <c r="F21">
-        <v>3.812301064580254</v>
+        <v>5.192981769266794</v>
       </c>
       <c r="G21">
-        <v>0.002573141217579454</v>
+        <v>0.0007383124524350167</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.551271225509026</v>
+        <v>12.76527435144533</v>
       </c>
       <c r="L21">
-        <v>0.1769906076283974</v>
+        <v>0.2804663219178423</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.116541788793796</v>
+        <v>0.9596233114998682</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4807942030375614</v>
+        <v>0.7199244963091473</v>
       </c>
       <c r="D22">
-        <v>0.2161382197259059</v>
+        <v>0.1242216964305101</v>
       </c>
       <c r="E22">
-        <v>0.2051560216827468</v>
+        <v>0.3263778309168401</v>
       </c>
       <c r="F22">
-        <v>3.874356251667933</v>
+        <v>5.612316229685234</v>
       </c>
       <c r="G22">
-        <v>0.002567736114425002</v>
+        <v>0.0007266627423520052</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.765950716568682</v>
+        <v>13.90343884297261</v>
       </c>
       <c r="L22">
-        <v>0.1808601349347612</v>
+        <v>0.3045706128144019</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.103848436457369</v>
+        <v>0.9367984841837398</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4761248960644764</v>
+        <v>0.6902447507407601</v>
       </c>
       <c r="D23">
-        <v>0.2163870342367247</v>
+        <v>0.1217433563244157</v>
       </c>
       <c r="E23">
-        <v>0.2029829989024918</v>
+        <v>0.3126690614979353</v>
       </c>
       <c r="F23">
-        <v>3.841036099559147</v>
+        <v>5.38563256931451</v>
       </c>
       <c r="G23">
-        <v>0.0025706030687748</v>
+        <v>0.0007328988691257572</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.651093518231164</v>
+        <v>13.29037324872797</v>
       </c>
       <c r="L23">
-        <v>0.1787857278714</v>
+        <v>0.291565333669169</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.110559540612883</v>
+        <v>0.9484930180579738</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4589450510590041</v>
+        <v>0.5840397272703512</v>
       </c>
       <c r="D24">
-        <v>0.2175189626665599</v>
+        <v>0.1141216763964152</v>
       </c>
       <c r="E24">
-        <v>0.1949742005683603</v>
+        <v>0.2636538393626751</v>
       </c>
       <c r="F24">
-        <v>3.719204235856921</v>
+        <v>4.584492228663322</v>
       </c>
       <c r="G24">
-        <v>0.002581854685485578</v>
+        <v>0.000756194161856141</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.222154142806858</v>
+        <v>11.07977894725019</v>
       </c>
       <c r="L24">
-        <v>0.1711291115692433</v>
+        <v>0.2451014062786925</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.13736690329516</v>
+        <v>1.002647356245916</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4414716579125582</v>
+        <v>0.4793232872247017</v>
       </c>
       <c r="D25">
-        <v>0.2191386311038244</v>
+        <v>0.108731669361525</v>
       </c>
       <c r="E25">
-        <v>0.1867983287219559</v>
+        <v>0.2153774015938055</v>
       </c>
       <c r="F25">
-        <v>3.596898911884693</v>
+        <v>3.811798507783976</v>
       </c>
       <c r="G25">
-        <v>0.002594840385644513</v>
+        <v>0.0007810738683645727</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.772061265310128</v>
+        <v>8.869568474304003</v>
       </c>
       <c r="L25">
-        <v>0.163287682948166</v>
+        <v>0.1993850332104188</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.16921156424354</v>
+        <v>1.077620576648826</v>
       </c>
       <c r="O25">
         <v>0</v>
